--- a/examples/templates/LetterTemplate.xlsx
+++ b/examples/templates/LetterTemplate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/workspace/Java/merlin/merlin-app/test/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/workspace/Java/merlin/examples/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A638A77D-C5B5-E84B-83D9-66B6546904E7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD671D24-573E-C64F-A9A3-E6BC315AF80F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="460" windowWidth="27080" windowHeight="19920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="460" windowWidth="27080" windowHeight="19920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
   <si>
     <t/>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>This template is used for the generation of emloyee contracts.</t>
-  </si>
-  <si>
-    <t>Filename</t>
   </si>
   <si>
     <t>employment-contract-${Employee}</t>
@@ -139,6 +136,12 @@
   </si>
   <si>
     <t>9MJdzFN2v2PKMJ9erj59</t>
+  </si>
+  <si>
+    <t>FilenamePattern</t>
+  </si>
+  <si>
+    <t>Here you may define the file name pattern of the generated files. You can use all Variables of the template, e. g. 'letter-'${receiver}'.</t>
   </si>
 </sst>
 </file>
@@ -539,7 +542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -569,7 +572,7 @@
     </row>
     <row r="2" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -627,7 +630,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -650,7 +653,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -673,7 +676,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -692,7 +695,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -742,7 +745,7 @@
     </row>
     <row r="2" spans="1:4" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -789,15 +792,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -809,7 +812,7 @@
     </row>
     <row r="2" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -835,7 +838,7 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -854,24 +857,24 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
       <c r="C6" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/examples/templates/LetterTemplate.xlsx
+++ b/examples/templates/LetterTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/workspace/Java/merlin/examples/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD671D24-573E-C64F-A9A3-E6BC315AF80F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7581372B-6C0B-E34E-B2E1-36D0942F149B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="460" windowWidth="27080" windowHeight="19920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="460" windowWidth="27080" windowHeight="19920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
   <si>
     <t/>
   </si>
@@ -90,16 +90,10 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>This template is used for the generation of emloyee contracts.</t>
   </si>
   <si>
     <t>employment-contract-${Employee}</t>
-  </si>
-  <si>
-    <t>Id</t>
   </si>
   <si>
     <t>Here all variables are defined which the user can customize. These variables are usable inside the MS Word® template files.
@@ -112,9 +106,6 @@
 It's recommended to refer the Merlin application for modifying template configurations.</t>
   </si>
   <si>
-    <t>Please do not modify this value.</t>
-  </si>
-  <si>
     <t>This sheet contains the configuration of this template.
 Please modify this sheet only if you know what you're doing!
 It's recommended to refer the Merlin application for modifying template configurations.</t>
@@ -135,20 +126,26 @@
     <t>Letter-Template</t>
   </si>
   <si>
-    <t>9MJdzFN2v2PKMJ9erj59</t>
-  </si>
-  <si>
     <t>FilenamePattern</t>
   </si>
   <si>
     <t>Here you may define the file name pattern of the generated files. You can use all Variables of the template, e. g. 'letter-'${receiver}'.</t>
+  </si>
+  <si>
+    <t>Only for describing the purpose of this template definition for the users.</t>
+  </si>
+  <si>
+    <t>Find a unique name shortly describing the functionality of this template, e. g. 'Employee contract'. You may refer this definition Excel file by this name.</t>
+  </si>
+  <si>
+    <t>Id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -166,13 +163,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="10"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -215,15 +205,15 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -542,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -572,7 +562,7 @@
     </row>
     <row r="2" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -630,7 +620,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -653,7 +643,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -676,7 +666,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -690,12 +680,12 @@
       <c r="E7" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -709,8 +699,8 @@
       <c r="E8" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -745,7 +735,7 @@
     </row>
     <row r="2" spans="1:4" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -790,9 +780,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -800,7 +790,7 @@
   <cols>
     <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="100" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="116.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -812,18 +802,18 @@
     </row>
     <row r="2" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -835,13 +825,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -849,32 +839,21 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/examples/templates/LetterTemplate.xlsx
+++ b/examples/templates/LetterTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/workspace/Java/merlin/examples/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7581372B-6C0B-E34E-B2E1-36D0942F149B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2368571-8072-7347-893E-E07B5CC4FAFA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3000" yWindow="460" windowWidth="27080" windowHeight="19920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,9 +93,6 @@
     <t>This template is used for the generation of emloyee contracts.</t>
   </si>
   <si>
-    <t>employment-contract-${Employee}</t>
-  </si>
-  <si>
     <t>Here all variables are defined which the user can customize. These variables are usable inside the MS Word® template files.
 Please modify this sheet only if you know what you're doing!
 It's recommended to refer the Merlin application for modifying template configurations.</t>
@@ -139,6 +136,9 @@
   </si>
   <si>
     <t>Id</t>
+  </si>
+  <si>
+    <t>Letter-${Receiver}</t>
   </si>
 </sst>
 </file>
@@ -562,7 +562,7 @@
     </row>
     <row r="2" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -620,7 +620,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="2" spans="1:4" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -802,7 +802,7 @@
     </row>
     <row r="2" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -825,13 +825,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -842,18 +842,18 @@
         <v>22</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
         <v>32</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/examples/templates/LetterTemplate.xlsx
+++ b/examples/templates/LetterTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/workspace/Java/merlin/examples/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2368571-8072-7347-893E-E07B5CC4FAFA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D4B825-D19A-CF40-88C0-BADA43177302}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3000" yWindow="460" windowWidth="27080" windowHeight="19920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,9 +90,6 @@
     <t>Value</t>
   </si>
   <si>
-    <t>This template is used for the generation of emloyee contracts.</t>
-  </si>
-  <si>
     <t>Here all variables are defined which the user can customize. These variables are usable inside the MS Word® template files.
 Please modify this sheet only if you know what you're doing!
 It's recommended to refer the Merlin application for modifying template configurations.</t>
@@ -120,9 +117,6 @@
     <t>Receiver_City</t>
   </si>
   <si>
-    <t>Letter-Template</t>
-  </si>
-  <si>
     <t>FilenamePattern</t>
   </si>
   <si>
@@ -139,6 +133,12 @@
   </si>
   <si>
     <t>Letter-${Receiver}</t>
+  </si>
+  <si>
+    <t>This template is used for the generation of letters.</t>
+  </si>
+  <si>
+    <t>Letter-Definition</t>
   </si>
 </sst>
 </file>
@@ -562,7 +562,7 @@
     </row>
     <row r="2" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -620,7 +620,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -716,7 +716,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -735,7 +735,7 @@
     </row>
     <row r="2" spans="1:4" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -802,7 +802,7 @@
     </row>
     <row r="2" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -825,13 +825,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -839,21 +839,21 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
